--- a/USA/state/data/cod/GHE cause_list_icd_codes_updated10August2016.xlsx
+++ b/USA/state/data/cod/GHE cause_list_icd_codes_updated10August2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="409"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="409"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -6890,6 +6890,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -6900,12 +6906,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -7366,10 +7366,10 @@
   <dimension ref="A1:DP303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -7414,13 +7414,13 @@
       <c r="C4" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="D4" s="287" t="s">
+      <c r="D4" s="289" t="s">
         <v>1713</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288"/>
-      <c r="H4" s="288"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="119" t="s">
         <v>558</v>
       </c>
@@ -7491,12 +7491,12 @@
       <c r="D6" s="83" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="285" t="s">
+      <c r="E6" s="287" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="46" t="s">
         <v>787</v>
       </c>
@@ -9296,11 +9296,11 @@
       <c r="E43" s="134" t="s">
         <v>341</v>
       </c>
-      <c r="F43" s="289" t="s">
+      <c r="F43" s="285" t="s">
         <v>365</v>
       </c>
-      <c r="G43" s="290"/>
-      <c r="H43" s="290"/>
+      <c r="G43" s="286"/>
+      <c r="H43" s="286"/>
       <c r="I43" s="10" t="s">
         <v>488</v>
       </c>
@@ -9843,7 +9843,7 @@
       <c r="J54" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="K54" s="11" t="s">
+      <c r="K54" s="138" t="s">
         <v>859</v>
       </c>
       <c r="L54" s="11" t="s">
@@ -9852,7 +9852,7 @@
       <c r="M54" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="N54" s="11" t="s">
+      <c r="N54" s="138" t="s">
         <v>792</v>
       </c>
       <c r="O54" s="11" t="s">
@@ -18029,13 +18029,13 @@
       <c r="C4" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="D4" s="287" t="s">
+      <c r="D4" s="289" t="s">
         <v>1713</v>
       </c>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="288"/>
-      <c r="H4" s="288"/>
+      <c r="E4" s="290"/>
+      <c r="F4" s="290"/>
+      <c r="G4" s="290"/>
+      <c r="H4" s="290"/>
       <c r="I4" s="119" t="s">
         <v>558</v>
       </c>
@@ -18106,12 +18106,12 @@
       <c r="D6" s="83" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="285" t="s">
+      <c r="E6" s="287" t="s">
         <v>314</v>
       </c>
-      <c r="F6" s="286"/>
-      <c r="G6" s="286"/>
-      <c r="H6" s="286"/>
+      <c r="F6" s="288"/>
+      <c r="G6" s="288"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="46" t="s">
         <v>787</v>
       </c>

--- a/USA/state/data/cod/GHE cause_list_icd_codes_updated10August2016.xlsx
+++ b/USA/state/data/cod/GHE cause_list_icd_codes_updated10August2016.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="409"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="409"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="2" r:id="rId1"/>
@@ -6094,7 +6094,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="292">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -6908,6 +6908,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7366,10 +7369,10 @@
   <dimension ref="A1:DP303"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="4" topLeftCell="I43" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="4" topLeftCell="I109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
+      <selection pane="bottomRight" activeCell="A124" sqref="A124:XFD124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9479,52 +9482,53 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="81" t="s">
+    <row r="47" spans="1:18" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="130" t="s">
         <v>1222</v>
       </c>
-      <c r="B47" s="124" t="s">
+      <c r="B47" s="131" t="s">
         <v>1424</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="132" t="s">
         <v>597</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="D47" s="133"/>
+      <c r="E47" s="134" t="s">
         <v>342</v>
       </c>
-      <c r="F47" s="89" t="s">
+      <c r="F47" s="285" t="s">
         <v>369</v>
       </c>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="10" t="s">
+      <c r="G47" s="286"/>
+      <c r="H47" s="286"/>
+      <c r="I47" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="J47" s="10" t="s">
+      <c r="J47" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="K47" s="11" t="s">
+      <c r="K47" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="L47" s="11" t="s">
+      <c r="L47" s="138" t="s">
         <v>59</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="138" t="s">
         <v>732</v>
       </c>
-      <c r="N47" s="11" t="s">
+      <c r="N47" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="O47" s="11" t="s">
+      <c r="O47" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="P47" s="12" t="s">
+      <c r="P47" s="140" t="s">
         <v>206</v>
       </c>
-      <c r="Q47" s="12" t="s">
+      <c r="Q47" s="140" t="s">
         <v>505</v>
       </c>
-      <c r="R47" s="70" t="s">
+      <c r="R47" s="141" t="s">
         <v>985</v>
       </c>
     </row>
@@ -10353,53 +10357,53 @@
         <v>992</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="81" t="s">
+    <row r="65" spans="1:18" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="130" t="s">
         <v>1244</v>
       </c>
-      <c r="B65" s="124" t="s">
+      <c r="B65" s="131" t="s">
         <v>1442</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="132" t="s">
         <v>612</v>
       </c>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9" t="s">
+      <c r="D65" s="134"/>
+      <c r="E65" s="134" t="s">
         <v>315</v>
       </c>
-      <c r="F65" s="89" t="s">
+      <c r="F65" s="285" t="s">
         <v>394</v>
       </c>
-      <c r="G65" s="71"/>
-      <c r="H65" s="71"/>
-      <c r="I65" s="10" t="s">
+      <c r="G65" s="286"/>
+      <c r="H65" s="286"/>
+      <c r="I65" s="137" t="s">
         <v>219</v>
       </c>
-      <c r="J65" s="10" t="s">
+      <c r="J65" s="137" t="s">
         <v>220</v>
       </c>
-      <c r="K65" s="11" t="s">
+      <c r="K65" s="138" t="s">
         <v>776</v>
       </c>
-      <c r="L65" s="11" t="s">
+      <c r="L65" s="138" t="s">
         <v>776</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="138" t="s">
         <v>739</v>
       </c>
-      <c r="N65" s="11" t="s">
+      <c r="N65" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="O65" s="11" t="s">
+      <c r="O65" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="P65" s="12" t="s">
+      <c r="P65" s="140" t="s">
         <v>221</v>
       </c>
-      <c r="Q65" s="12" t="s">
+      <c r="Q65" s="140" t="s">
         <v>513</v>
       </c>
-      <c r="R65" s="70" t="s">
+      <c r="R65" s="141" t="s">
         <v>993</v>
       </c>
     </row>
@@ -11894,53 +11898,53 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="101" spans="1:18" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="81" t="s">
+    <row r="101" spans="1:18" s="142" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="130" t="s">
         <v>1267</v>
       </c>
-      <c r="B101" s="225" t="s">
+      <c r="B101" s="131" t="s">
         <v>1463</v>
       </c>
-      <c r="C101" s="226" t="s">
+      <c r="C101" s="132" t="s">
         <v>632</v>
       </c>
-      <c r="D101" s="227"/>
-      <c r="E101" s="228" t="s">
+      <c r="D101" s="133"/>
+      <c r="E101" s="134" t="s">
         <v>376</v>
       </c>
-      <c r="F101" s="229" t="s">
+      <c r="F101" s="285" t="s">
         <v>1268</v>
       </c>
-      <c r="G101" s="230"/>
-      <c r="H101" s="230"/>
-      <c r="I101" s="10" t="s">
+      <c r="G101" s="286"/>
+      <c r="H101" s="286"/>
+      <c r="I101" s="137" t="s">
         <v>954</v>
       </c>
-      <c r="J101" s="10" t="s">
+      <c r="J101" s="137" t="s">
         <v>959</v>
       </c>
-      <c r="K101" s="11" t="s">
+      <c r="K101" s="138" t="s">
         <v>862</v>
       </c>
-      <c r="L101" s="11" t="s">
+      <c r="L101" s="138" t="s">
         <v>862</v>
       </c>
-      <c r="M101" s="11" t="s">
+      <c r="M101" s="138" t="s">
         <v>747</v>
       </c>
-      <c r="N101" s="11" t="s">
+      <c r="N101" s="138" t="s">
         <v>1707</v>
       </c>
-      <c r="O101" s="11" t="s">
+      <c r="O101" s="138" t="s">
         <v>1707</v>
       </c>
-      <c r="P101" s="12" t="s">
+      <c r="P101" s="140" t="s">
         <v>773</v>
       </c>
-      <c r="Q101" s="12" t="s">
+      <c r="Q101" s="140" t="s">
         <v>525</v>
       </c>
-      <c r="R101" s="70" t="s">
+      <c r="R101" s="141" t="s">
         <v>1014</v>
       </c>
     </row>
@@ -13013,52 +13017,53 @@
         <v>173</v>
       </c>
     </row>
-    <row r="124" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="81" t="s">
+    <row r="124" spans="1:18" s="142" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="130" t="s">
         <v>1297</v>
       </c>
-      <c r="B124" s="124" t="s">
+      <c r="B124" s="131" t="s">
         <v>1486</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="132" t="s">
         <v>648</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="D124" s="133"/>
+      <c r="E124" s="134" t="s">
         <v>379</v>
       </c>
-      <c r="F124" s="89" t="s">
+      <c r="F124" s="285" t="s">
         <v>422</v>
       </c>
-      <c r="G124" s="71"/>
-      <c r="H124" s="71"/>
-      <c r="I124" s="10" t="s">
+      <c r="G124" s="286"/>
+      <c r="H124" s="286"/>
+      <c r="I124" s="137" t="s">
         <v>469</v>
       </c>
-      <c r="J124" s="10" t="s">
+      <c r="J124" s="137" t="s">
         <v>260</v>
       </c>
-      <c r="K124" s="11" t="s">
+      <c r="K124" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="L124" s="11" t="s">
+      <c r="L124" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="M124" s="11" t="s">
+      <c r="M124" s="138" t="s">
         <v>261</v>
       </c>
-      <c r="N124" s="11" t="s">
+      <c r="N124" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="O124" s="11" t="s">
+      <c r="O124" s="138" t="s">
         <v>140</v>
       </c>
-      <c r="P124" s="12" t="s">
+      <c r="P124" s="140" t="s">
         <v>261</v>
       </c>
-      <c r="Q124" s="12" t="s">
+      <c r="Q124" s="140" t="s">
         <v>526</v>
       </c>
-      <c r="R124" s="70" t="s">
+      <c r="R124" s="141" t="s">
         <v>1017</v>
       </c>
     </row>
@@ -13499,55 +13504,56 @@
       <c r="DO130" s="42"/>
       <c r="DP130" s="42"/>
     </row>
-    <row r="131" spans="1:120" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="81" t="s">
+    <row r="131" spans="1:120" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="130" t="s">
         <v>1306</v>
       </c>
-      <c r="B131" s="124" t="s">
+      <c r="B131" s="131" t="s">
         <v>1493</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="132" t="s">
         <v>653</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="D131" s="133"/>
+      <c r="E131" s="134" t="s">
         <v>380</v>
       </c>
-      <c r="F131" s="89" t="s">
+      <c r="F131" s="285" t="s">
         <v>427</v>
       </c>
-      <c r="G131" s="71"/>
-      <c r="H131" s="71"/>
-      <c r="I131" s="10" t="s">
+      <c r="G131" s="286"/>
+      <c r="H131" s="286"/>
+      <c r="I131" s="137" t="s">
         <v>269</v>
       </c>
-      <c r="J131" s="10" t="s">
+      <c r="J131" s="137" t="s">
         <v>270</v>
       </c>
-      <c r="K131" s="11" t="s">
+      <c r="K131" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="L131" s="11" t="s">
+      <c r="L131" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="M131" s="11" t="s">
+      <c r="M131" s="138" t="s">
         <v>768</v>
       </c>
-      <c r="N131" s="11" t="s">
+      <c r="N131" s="138" t="s">
         <v>935</v>
       </c>
-      <c r="O131" s="11" t="s">
+      <c r="O131" s="138" t="s">
         <v>935</v>
       </c>
-      <c r="P131" s="12" t="s">
+      <c r="P131" s="140" t="s">
         <v>964</v>
       </c>
-      <c r="Q131" s="12" t="s">
+      <c r="Q131" s="140" t="s">
         <v>530</v>
       </c>
-      <c r="R131" s="70" t="s">
+      <c r="R131" s="141" t="s">
         <v>1023</v>
       </c>
-      <c r="BX131" s="23"/>
+      <c r="BX131" s="291"/>
     </row>
     <row r="132" spans="1:120" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="81" t="s">
@@ -14176,52 +14182,53 @@
       <c r="S144" s="42"/>
       <c r="T144" s="42"/>
     </row>
-    <row r="145" spans="1:18" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="81" t="s">
+    <row r="145" spans="1:18" s="142" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="130" t="s">
         <v>1318</v>
       </c>
-      <c r="B145" s="124" t="s">
+      <c r="B145" s="131" t="s">
         <v>1502</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="132" t="s">
         <v>660</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="D145" s="133"/>
+      <c r="E145" s="134" t="s">
         <v>381</v>
       </c>
-      <c r="F145" s="89" t="s">
+      <c r="F145" s="285" t="s">
         <v>1319</v>
       </c>
-      <c r="G145" s="71"/>
-      <c r="H145" s="71"/>
-      <c r="I145" s="10" t="s">
+      <c r="G145" s="286"/>
+      <c r="H145" s="286"/>
+      <c r="I145" s="137" t="s">
         <v>280</v>
       </c>
-      <c r="J145" s="10" t="s">
+      <c r="J145" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="K145" s="11" t="s">
+      <c r="K145" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="L145" s="11" t="s">
+      <c r="L145" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="M145" s="11" t="s">
+      <c r="M145" s="138" t="s">
         <v>760</v>
       </c>
-      <c r="N145" s="11" t="s">
+      <c r="N145" s="138" t="s">
         <v>937</v>
       </c>
-      <c r="O145" s="11" t="s">
+      <c r="O145" s="138" t="s">
         <v>937</v>
       </c>
-      <c r="P145" s="12" t="s">
+      <c r="P145" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="Q145" s="12" t="s">
+      <c r="Q145" s="140" t="s">
         <v>535</v>
       </c>
-      <c r="R145" s="70" t="s">
+      <c r="R145" s="141" t="s">
         <v>1029</v>
       </c>
     </row>
